--- a/3.results/comptage_par_espece2.xlsx
+++ b/3.results/comptage_par_espece2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B93FD-63A2-42E9-9453-032F4CFDA211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A75111D-43E5-4BC9-9B0D-F1E01AD7C665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,12 +184,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +239,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,272 +629,289 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>2982</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1343</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>3190</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>1051</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>4331</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>811</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>447</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>923</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>575</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>1435</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>789</v>
       </c>
-      <c r="D4" s="3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
         <v>1328</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>934</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>565</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>240</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>184</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>82</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>1174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>419</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>80</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>457</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>36</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>406</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>401</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>325</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>57</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>207</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>179</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>137</v>
       </c>
-      <c r="F9" s="3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>78</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>21</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>6</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>67</v>
       </c>
-      <c r="E11" s="3">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <v>8</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="8">
         <v>67</v>
       </c>
-      <c r="E12" s="3">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="8">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="8">
         <v>51</v>
       </c>
-      <c r="F14" s="3">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>38</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="8">
         <v>9</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="8">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>31</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="10">
         <v>10</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="10">
         <v>52</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="10">
         <v>35</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>19</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="10">
         <v>40</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="10">
         <v>156</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="10">
         <v>49</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="10">
         <v>277</v>
       </c>
     </row>

--- a/3.results/comptage_par_espece2.xlsx
+++ b/3.results/comptage_par_espece2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A75111D-43E5-4BC9-9B0D-F1E01AD7C665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDAD40-712A-4E1F-84E2-F72D43E9D0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>nom_fr</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>sterne moyenne ind</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>juillet</t>
+  </si>
+  <si>
+    <t>avril</t>
+  </si>
+  <si>
+    <t>oct</t>
   </si>
 </sst>
 </file>
@@ -593,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +621,7 @@
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -649,7 +661,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -668,8 +680,14 @@
       <c r="F3" s="4">
         <v>1435</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -685,7 +703,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -705,7 +723,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -725,7 +743,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -744,8 +762,14 @@
       <c r="F7" s="4">
         <v>210</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -761,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -777,7 +801,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -797,7 +821,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -813,7 +837,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -829,7 +853,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -841,7 +865,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -855,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -875,7 +899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>

--- a/3.results/comptage_par_espece2.xlsx
+++ b/3.results/comptage_par_espece2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDAD40-712A-4E1F-84E2-F72D43E9D0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B2640-250F-4986-B3BF-9F03523ABC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>nom_fr</t>
   </si>
@@ -161,18 +161,6 @@
   </si>
   <si>
     <t>sterne moyenne ind</t>
-  </si>
-  <si>
-    <t>mars</t>
-  </si>
-  <si>
-    <t>juillet</t>
-  </si>
-  <si>
-    <t>avril</t>
-  </si>
-  <si>
-    <t>oct</t>
   </si>
 </sst>
 </file>
@@ -605,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +609,7 @@
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -661,7 +649,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -680,14 +668,8 @@
       <c r="F3" s="4">
         <v>1435</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -703,7 +685,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -723,7 +705,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -743,7 +725,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -762,14 +744,8 @@
       <c r="F7" s="4">
         <v>210</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -785,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -801,7 +777,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -821,7 +797,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -837,7 +813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -853,7 +829,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -865,7 +841,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -879,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -899,7 +875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>

--- a/3.results/comptage_par_espece2.xlsx
+++ b/3.results/comptage_par_espece2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B2640-250F-4986-B3BF-9F03523ABC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8338E85-3751-48DF-9C05-1A0BBAF64049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,6 +255,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +599,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +673,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="6">
@@ -726,7 +729,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4">
@@ -876,7 +879,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="10">
@@ -896,7 +899,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="10">
@@ -1076,7 +1079,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="3">
@@ -1103,7 +1106,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="3">

--- a/3.results/comptage_par_espece2.xlsx
+++ b/3.results/comptage_par_espece2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8338E85-3751-48DF-9C05-1A0BBAF64049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D4128A-9620-44A4-83A4-D22E3364FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,13 +251,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,19 +672,19 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="11">
         <v>789</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
         <v>1328</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
         <v>934</v>
       </c>
     </row>
@@ -728,23 +728,23 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>406</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>401</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>325</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>57</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>210</v>
       </c>
     </row>
@@ -878,43 +878,43 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>31</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>52</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>35</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>19</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>40</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>156</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>49</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>277</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="3">
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="3">

--- a/3.results/comptage_par_espece2.xlsx
+++ b/3.results/comptage_par_espece2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D4128A-9620-44A4-83A4-D22E3364FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C7760-8610-4123-B3C7-74161FE787D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +215,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -228,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,6 +276,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +777,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8">
@@ -781,7 +809,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="6">
@@ -817,7 +845,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8">
@@ -833,7 +861,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8">
@@ -845,7 +873,7 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8">
@@ -1089,23 +1117,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
@@ -1113,7 +1149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -1121,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
@@ -1129,8 +1165,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="3">
@@ -1140,15 +1176,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1156,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -1164,7 +1204,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
